--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cxcl12-Ackr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H2">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I2">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J2">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.5233452431083</v>
+        <v>21.90542466666666</v>
       </c>
       <c r="N2">
-        <v>21.5233452431083</v>
+        <v>65.716274</v>
       </c>
       <c r="O2">
-        <v>0.4418287760039803</v>
+        <v>0.4103613011498748</v>
       </c>
       <c r="P2">
-        <v>0.4418287760039803</v>
+        <v>0.4103613011498748</v>
       </c>
       <c r="Q2">
-        <v>3975.213295947369</v>
+        <v>4358.680305943937</v>
       </c>
       <c r="R2">
-        <v>3975.213295947369</v>
+        <v>39228.12275349544</v>
       </c>
       <c r="S2">
-        <v>0.2061763874949301</v>
+        <v>0.1808837121736066</v>
       </c>
       <c r="T2">
-        <v>0.2061763874949301</v>
+        <v>0.1808837121736066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H3">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I3">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J3">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.1571600525939</v>
+        <v>23.19964933333333</v>
       </c>
       <c r="N3">
-        <v>20.1571600525939</v>
+        <v>69.59894799999999</v>
       </c>
       <c r="O3">
-        <v>0.4137838822524841</v>
+        <v>0.4346064242769223</v>
       </c>
       <c r="P3">
-        <v>0.4137838822524841</v>
+        <v>0.4346064242769223</v>
       </c>
       <c r="Q3">
-        <v>3722.888321705821</v>
+        <v>4616.201520524675</v>
       </c>
       <c r="R3">
-        <v>3722.888321705821</v>
+        <v>41545.81368472207</v>
       </c>
       <c r="S3">
-        <v>0.1930894289367792</v>
+        <v>0.1915707527425826</v>
       </c>
       <c r="T3">
-        <v>0.1930894289367792</v>
+        <v>0.1915707527425827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.693097241481</v>
+        <v>198.977211</v>
       </c>
       <c r="H4">
-        <v>184.693097241481</v>
+        <v>596.9316329999999</v>
       </c>
       <c r="I4">
-        <v>0.4666431855336483</v>
+        <v>0.440791350614085</v>
       </c>
       <c r="J4">
-        <v>0.4666431855336483</v>
+        <v>0.4407913506140851</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.03371707290695</v>
+        <v>8.275750666666667</v>
       </c>
       <c r="N4">
-        <v>7.03371707290695</v>
+        <v>24.827252</v>
       </c>
       <c r="O4">
-        <v>0.1443873417435355</v>
+        <v>0.1550322745732029</v>
       </c>
       <c r="P4">
-        <v>0.1443873417435355</v>
+        <v>0.1550322745732029</v>
       </c>
       <c r="Q4">
-        <v>1299.078991315469</v>
+        <v>1646.685786584724</v>
       </c>
       <c r="R4">
-        <v>1299.078991315469</v>
+        <v>14820.17207926251</v>
       </c>
       <c r="S4">
-        <v>0.06737736910193891</v>
+        <v>0.06833688569789577</v>
       </c>
       <c r="T4">
-        <v>0.06737736910193891</v>
+        <v>0.06833688569789577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H5">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I5">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J5">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.5233452431083</v>
+        <v>21.90542466666666</v>
       </c>
       <c r="N5">
-        <v>21.5233452431083</v>
+        <v>65.716274</v>
       </c>
       <c r="O5">
-        <v>0.4418287760039803</v>
+        <v>0.4103613011498748</v>
       </c>
       <c r="P5">
-        <v>0.4418287760039803</v>
+        <v>0.4103613011498748</v>
       </c>
       <c r="Q5">
-        <v>4213.491153568266</v>
+        <v>4310.432790313083</v>
       </c>
       <c r="R5">
-        <v>4213.491153568266</v>
+        <v>38793.89511281776</v>
       </c>
       <c r="S5">
-        <v>0.2185347854592335</v>
+        <v>0.1788814571060437</v>
       </c>
       <c r="T5">
-        <v>0.2185347854592335</v>
+        <v>0.1788814571060437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H6">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J6">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.1571600525939</v>
+        <v>23.19964933333333</v>
       </c>
       <c r="N6">
-        <v>20.1571600525939</v>
+        <v>69.59894799999999</v>
       </c>
       <c r="O6">
-        <v>0.4137838822524841</v>
+        <v>0.4346064242769223</v>
       </c>
       <c r="P6">
-        <v>0.4137838822524841</v>
+        <v>0.4346064242769223</v>
       </c>
       <c r="Q6">
-        <v>3946.04159359749</v>
+        <v>4565.103426747767</v>
       </c>
       <c r="R6">
-        <v>3946.04159359749</v>
+        <v>41085.9308407299</v>
       </c>
       <c r="S6">
-        <v>0.2046633828434044</v>
+        <v>0.189450199676381</v>
       </c>
       <c r="T6">
-        <v>0.2046633828434044</v>
+        <v>0.189450199676381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>195.763767480216</v>
+        <v>196.7746736666667</v>
       </c>
       <c r="H7">
-        <v>195.763767480216</v>
+        <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721307</v>
       </c>
       <c r="J7">
-        <v>0.4946141974629212</v>
+        <v>0.4359121013721308</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.03371707290695</v>
+        <v>8.275750666666667</v>
       </c>
       <c r="N7">
-        <v>7.03371707290695</v>
+        <v>24.827252</v>
       </c>
       <c r="O7">
-        <v>0.1443873417435355</v>
+        <v>0.1550322745732029</v>
       </c>
       <c r="P7">
-        <v>0.1443873417435355</v>
+        <v>0.1550322745732029</v>
       </c>
       <c r="Q7">
-        <v>1376.946953582182</v>
+        <v>1628.458136780033</v>
       </c>
       <c r="R7">
-        <v>1376.946953582182</v>
+        <v>14656.12323102029</v>
       </c>
       <c r="S7">
-        <v>0.07141602916028335</v>
+        <v>0.06758044458970601</v>
       </c>
       <c r="T7">
-        <v>0.07141602916028335</v>
+        <v>0.06758044458970602</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +894,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>15.3339728328425</v>
+        <v>0.158424</v>
       </c>
       <c r="H8">
-        <v>15.3339728328425</v>
+        <v>0.475272</v>
       </c>
       <c r="I8">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="J8">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.5233452431083</v>
+        <v>21.90542466666666</v>
       </c>
       <c r="N8">
-        <v>21.5233452431083</v>
+        <v>65.716274</v>
       </c>
       <c r="O8">
-        <v>0.4418287760039803</v>
+        <v>0.4103613011498748</v>
       </c>
       <c r="P8">
-        <v>0.4418287760039803</v>
+        <v>0.4103613011498748</v>
       </c>
       <c r="Q8">
-        <v>330.0383912297125</v>
+        <v>3.470344997392</v>
       </c>
       <c r="R8">
-        <v>330.0383912297125</v>
+        <v>31.233104976528</v>
       </c>
       <c r="S8">
-        <v>0.01711760304981669</v>
+        <v>0.0001440181067639523</v>
       </c>
       <c r="T8">
-        <v>0.01711760304981669</v>
+        <v>0.0001440181067639523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,61 +956,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>15.3339728328425</v>
+        <v>0.158424</v>
       </c>
       <c r="H9">
-        <v>15.3339728328425</v>
+        <v>0.475272</v>
       </c>
       <c r="I9">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="J9">
-        <v>0.0387426170034305</v>
+        <v>0.0003509544061791369</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.1571600525939</v>
+        <v>23.19964933333333</v>
       </c>
       <c r="N9">
-        <v>20.1571600525939</v>
+        <v>69.59894799999999</v>
       </c>
       <c r="O9">
-        <v>0.4137838822524841</v>
+        <v>0.4346064242769223</v>
       </c>
       <c r="P9">
-        <v>0.4137838822524841</v>
+        <v>0.4346064242769223</v>
       </c>
       <c r="Q9">
-        <v>309.0893446337329</v>
+        <v>3.675381245984</v>
       </c>
       <c r="R9">
-        <v>309.0893446337329</v>
+        <v>33.078431213856</v>
       </c>
       <c r="S9">
-        <v>0.01603107047230058</v>
+        <v>0.0001525270395537453</v>
       </c>
       <c r="T9">
-        <v>0.01603107047230058</v>
+        <v>0.0001525270395537453</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.158424</v>
+      </c>
+      <c r="H10">
+        <v>0.475272</v>
+      </c>
+      <c r="I10">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="J10">
+        <v>0.0003509544061791369</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.275750666666667</v>
+      </c>
+      <c r="N10">
+        <v>24.827252</v>
+      </c>
+      <c r="O10">
+        <v>0.1550322745732029</v>
+      </c>
+      <c r="P10">
+        <v>0.1550322745732029</v>
+      </c>
+      <c r="Q10">
+        <v>1.311077523616</v>
+      </c>
+      <c r="R10">
+        <v>11.799697712544</v>
+      </c>
+      <c r="S10">
+        <v>5.440925986143931E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.440925986143931E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="H10">
-        <v>15.3339728328425</v>
-      </c>
-      <c r="I10">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="J10">
-        <v>0.0387426170034305</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.03371707290695</v>
-      </c>
-      <c r="N10">
-        <v>7.03371707290695</v>
-      </c>
-      <c r="O10">
-        <v>0.1443873417435355</v>
-      </c>
-      <c r="P10">
-        <v>0.1443873417435355</v>
-      </c>
-      <c r="Q10">
-        <v>107.8548265098556</v>
-      </c>
-      <c r="R10">
-        <v>107.8548265098556</v>
-      </c>
-      <c r="S10">
-        <v>0.005593943481313229</v>
-      </c>
-      <c r="T10">
-        <v>0.005593943481313229</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H11">
+        <v>166.496266</v>
+      </c>
+      <c r="I11">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J11">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.90542466666666</v>
+      </c>
+      <c r="N11">
+        <v>65.716274</v>
+      </c>
+      <c r="O11">
+        <v>0.4103613011498748</v>
+      </c>
+      <c r="P11">
+        <v>0.4103613011498748</v>
+      </c>
+      <c r="Q11">
+        <v>1215.723804048098</v>
+      </c>
+      <c r="R11">
+        <v>10941.51423643289</v>
+      </c>
+      <c r="S11">
+        <v>0.0504521137634605</v>
+      </c>
+      <c r="T11">
+        <v>0.0504521137634605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H12">
+        <v>166.496266</v>
+      </c>
+      <c r="I12">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J12">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>23.19964933333333</v>
+      </c>
+      <c r="N12">
+        <v>69.59894799999999</v>
+      </c>
+      <c r="O12">
+        <v>0.4346064242769223</v>
+      </c>
+      <c r="P12">
+        <v>0.4346064242769223</v>
+      </c>
+      <c r="Q12">
+        <v>1287.551662169796</v>
+      </c>
+      <c r="R12">
+        <v>11587.96495952817</v>
+      </c>
+      <c r="S12">
+        <v>0.05343294481840483</v>
+      </c>
+      <c r="T12">
+        <v>0.05343294481840483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>55.49875533333334</v>
+      </c>
+      <c r="H13">
+        <v>166.496266</v>
+      </c>
+      <c r="I13">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="J13">
+        <v>0.122945593607605</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.275750666666667</v>
+      </c>
+      <c r="N13">
+        <v>24.827252</v>
+      </c>
+      <c r="O13">
+        <v>0.1550322745732029</v>
+      </c>
+      <c r="P13">
+        <v>0.1550322745732029</v>
+      </c>
+      <c r="Q13">
+        <v>459.2938614490037</v>
+      </c>
+      <c r="R13">
+        <v>4133.644753041032</v>
+      </c>
+      <c r="S13">
+        <v>0.01906053502573963</v>
+      </c>
+      <c r="T13">
+        <v>0.01906053502573963</v>
       </c>
     </row>
   </sheetData>
